--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.4788453110932</v>
+        <v>2.29025</v>
       </c>
       <c r="H2">
-        <v>1.4788453110932</v>
+        <v>6.870749999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.161363346507542</v>
+        <v>0.3777296666666667</v>
       </c>
       <c r="N2">
-        <v>0.161363346507542</v>
+        <v>1.133189</v>
       </c>
       <c r="O2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="P2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="Q2">
-        <v>0.2386314283649858</v>
+        <v>0.8650953690833333</v>
       </c>
       <c r="R2">
-        <v>0.2386314283649858</v>
+        <v>7.785858321749999</v>
       </c>
       <c r="S2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
       <c r="T2">
-        <v>0.1130114507935157</v>
+        <v>0.2121489992374768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.4788453110932</v>
+        <v>2.29025</v>
       </c>
       <c r="H3">
-        <v>1.4788453110932</v>
+        <v>6.870749999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.05959033377379</v>
+        <v>1.092289666666667</v>
       </c>
       <c r="N3">
-        <v>1.05959033377379</v>
+        <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="P3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="Q3">
-        <v>1.566970196781048</v>
+        <v>2.501616409083333</v>
       </c>
       <c r="R3">
-        <v>1.566970196781048</v>
+        <v>22.51454768175</v>
       </c>
       <c r="S3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
       <c r="T3">
-        <v>0.742088234151519</v>
+        <v>0.6134761976883921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.4788453110932</v>
+        <v>2.29025</v>
       </c>
       <c r="H4">
-        <v>1.4788453110932</v>
+        <v>6.870749999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.206895846244706</v>
+        <v>0.310473</v>
       </c>
       <c r="N4">
-        <v>0.206895846244706</v>
+        <v>0.931419</v>
       </c>
       <c r="O4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="P4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="Q4">
-        <v>0.3059669521036431</v>
+        <v>0.71106078825</v>
       </c>
       <c r="R4">
-        <v>0.3059669521036431</v>
+        <v>6.399547094249999</v>
       </c>
       <c r="S4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
       <c r="T4">
-        <v>0.1449003150549654</v>
+        <v>0.174374803074131</v>
       </c>
     </row>
   </sheetData>
